--- a/project_list.xlsx
+++ b/project_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tizian Rein\workspace\projects\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{341DD981-DBBC-47FC-A7C8-0371BB8D3043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37474DBB-FA60-4ECD-8A9D-6E9754E1A007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{CC6B4A26-EE5B-4714-BE6A-3D0AD4264D4C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Project</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Anamorphosen</t>
-  </si>
-  <si>
     <t>Haus des Vaters</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
   </si>
   <si>
     <t>Diplomatenwohnung Bonn</t>
-  </si>
-  <si>
-    <t>Coding Architecture</t>
   </si>
   <si>
     <t>Meteora</t>
@@ -488,7 +482,7 @@
   <dimension ref="C5:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -501,21 +495,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C7">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C8">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C9">
@@ -538,7 +521,7 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.45">
@@ -546,7 +529,7 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.45">
@@ -554,7 +537,7 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.45">
@@ -562,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.45">
@@ -610,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.45">
@@ -618,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.45">
@@ -626,7 +609,7 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.45">
@@ -666,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.45">
@@ -690,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
